--- a/docs/Examples/Liquid_Ol_Liq_Themometry/Thermometry_out1.xlsx
+++ b/docs/Examples/Liquid_Ol_Liq_Themometry/Thermometry_out1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -64,43 +64,10 @@
     <t>Temperature_C</t>
   </si>
   <si>
+    <t>You can add any other columns you may want, like latitude</t>
+  </si>
+  <si>
     <t>Latitude</t>
-  </si>
-  <si>
-    <t>SiO2_Ol</t>
-  </si>
-  <si>
-    <t>TiO2_Ol</t>
-  </si>
-  <si>
-    <t>Al2O3_Ol</t>
-  </si>
-  <si>
-    <t>FeOt_Ol</t>
-  </si>
-  <si>
-    <t>MnO_Ol</t>
-  </si>
-  <si>
-    <t>MgO_Ol</t>
-  </si>
-  <si>
-    <t>CaO_Ol</t>
-  </si>
-  <si>
-    <t>_Ol</t>
-  </si>
-  <si>
-    <t>K2O_Ol</t>
-  </si>
-  <si>
-    <t>Cr2O3_Ol</t>
-  </si>
-  <si>
-    <t>P2O5_Ol</t>
-  </si>
-  <si>
-    <t>H2O_Ol</t>
   </si>
   <si>
     <t>T_Helz1987</t>
@@ -497,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,46 +534,13 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>57.0236015319824</v>
@@ -653,61 +587,25 @@
       <c r="Q2">
         <v>1000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>32</v>
       </c>
-      <c r="S2">
-        <v>40.5</v>
-      </c>
       <c r="T2">
-        <v>0.02</v>
+        <v>1098.255182361603</v>
       </c>
       <c r="U2">
-        <v>0.08</v>
+        <v>1083.050016820756</v>
       </c>
       <c r="V2">
-        <v>12.4</v>
-      </c>
-      <c r="W2">
-        <v>0.17</v>
-      </c>
-      <c r="X2">
-        <v>47.4</v>
-      </c>
-      <c r="Y2">
-        <v>0.3</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.03</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>1098.255182361603</v>
-      </c>
-      <c r="AF2">
         <v>1083.050016820756</v>
       </c>
-      <c r="AG2">
-        <v>1083.050016820756</v>
-      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>57.6585998535156</v>
@@ -754,61 +652,25 @@
       <c r="Q3">
         <v>1050</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>33</v>
       </c>
-      <c r="S3">
-        <v>41.3</v>
-      </c>
       <c r="T3">
-        <v>0.03</v>
+        <v>1071.665293765068</v>
       </c>
       <c r="U3">
-        <v>0.11</v>
+        <v>1044.231842359795</v>
       </c>
       <c r="V3">
-        <v>9.59</v>
-      </c>
-      <c r="W3">
-        <v>0.14</v>
-      </c>
-      <c r="X3">
-        <v>50.2</v>
-      </c>
-      <c r="Y3">
-        <v>0.31</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>1071.665293765068</v>
-      </c>
-      <c r="AF3">
         <v>1044.231842359795</v>
       </c>
-      <c r="AG3">
-        <v>1044.231842359795</v>
-      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>60.731201171875</v>
@@ -855,61 +717,25 @@
       <c r="Q4">
         <v>1100</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>34</v>
       </c>
-      <c r="S4">
-        <v>39.7</v>
-      </c>
       <c r="T4">
-        <v>0.05</v>
+        <v>1064.424268841743</v>
       </c>
       <c r="U4">
-        <v>0.11</v>
+        <v>1035.105739361339</v>
       </c>
       <c r="V4">
-        <v>15.6</v>
-      </c>
-      <c r="W4">
-        <v>0.18</v>
-      </c>
-      <c r="X4">
-        <v>44.5</v>
-      </c>
-      <c r="Y4">
-        <v>0.31</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.03</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>1064.424268841743</v>
-      </c>
-      <c r="AF4">
         <v>1035.105739361339</v>
       </c>
-      <c r="AG4">
-        <v>1035.105739361339</v>
-      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>61.5327987670898</v>
@@ -956,61 +782,25 @@
       <c r="Q5">
         <v>1100</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>35</v>
       </c>
-      <c r="S5">
-        <v>40.5</v>
-      </c>
       <c r="T5">
-        <v>0.05</v>
+        <v>1046.994149923325</v>
       </c>
       <c r="U5">
-        <v>0.1</v>
+        <v>1000.290726039591</v>
       </c>
       <c r="V5">
-        <v>13.2</v>
-      </c>
-      <c r="W5">
-        <v>0.18</v>
-      </c>
-      <c r="X5">
-        <v>46.8</v>
-      </c>
-      <c r="Y5">
-        <v>0.29</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.02</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>1046.994149923325</v>
-      </c>
-      <c r="AF5">
         <v>1000.290726039591</v>
       </c>
-      <c r="AG5">
-        <v>1000.290726039591</v>
-      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>52.9691009521484</v>
@@ -1057,61 +847,25 @@
       <c r="Q6">
         <v>1100</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>36</v>
       </c>
-      <c r="S6">
-        <v>40.5</v>
-      </c>
       <c r="T6">
-        <v>0</v>
+        <v>1090.048550391197</v>
       </c>
       <c r="U6">
-        <v>0.1</v>
+        <v>1062.975168266626</v>
       </c>
       <c r="V6">
-        <v>9.41</v>
-      </c>
-      <c r="W6">
-        <v>0.1</v>
-      </c>
-      <c r="X6">
-        <v>49.3</v>
-      </c>
-      <c r="Y6">
-        <v>0.31</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>1090.048550391197</v>
-      </c>
-      <c r="AF6">
         <v>1062.975168266626</v>
       </c>
-      <c r="AG6">
-        <v>1062.975168266626</v>
-      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>54.0502014160156</v>
@@ -1158,61 +912,25 @@
       <c r="Q7">
         <v>1100</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>37</v>
       </c>
-      <c r="S7">
-        <v>40.5</v>
-      </c>
       <c r="T7">
-        <v>0.02</v>
+        <v>1079.74649913311</v>
       </c>
       <c r="U7">
-        <v>0.1</v>
+        <v>1050.05411251768</v>
       </c>
       <c r="V7">
-        <v>10.6</v>
-      </c>
-      <c r="W7">
-        <v>0.15</v>
-      </c>
-      <c r="X7">
-        <v>48.5</v>
-      </c>
-      <c r="Y7">
-        <v>0.34</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0.02</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>1079.74649913311</v>
-      </c>
-      <c r="AF7">
         <v>1050.05411251768</v>
       </c>
-      <c r="AG7">
-        <v>1050.05411251768</v>
-      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>55.6562995910644</v>
@@ -1259,61 +977,25 @@
       <c r="Q8">
         <v>1100</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>38</v>
       </c>
-      <c r="S8">
-        <v>40.2</v>
-      </c>
       <c r="T8">
-        <v>0.04</v>
+        <v>1067.772324800491</v>
       </c>
       <c r="U8">
-        <v>0.22</v>
+        <v>1032.995371277641</v>
       </c>
       <c r="V8">
-        <v>15.3</v>
-      </c>
-      <c r="W8">
-        <v>0.15</v>
-      </c>
-      <c r="X8">
-        <v>44.6</v>
-      </c>
-      <c r="Y8">
-        <v>0.41</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0.02</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>1067.772324800491</v>
-      </c>
-      <c r="AF8">
         <v>1032.995371277641</v>
       </c>
-      <c r="AG8">
-        <v>1032.995371277641</v>
-      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>49.0546989440918</v>
@@ -1360,61 +1042,25 @@
       <c r="Q9">
         <v>1100</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>39</v>
       </c>
-      <c r="S9">
-        <v>39.6</v>
-      </c>
       <c r="T9">
-        <v>0.04</v>
+        <v>1099.84408864975</v>
       </c>
       <c r="U9">
-        <v>0.06</v>
+        <v>1058.301042688784</v>
       </c>
       <c r="V9">
-        <v>18.7</v>
-      </c>
-      <c r="W9">
-        <v>0.19</v>
-      </c>
-      <c r="X9">
-        <v>42.3</v>
-      </c>
-      <c r="Y9">
-        <v>0.33</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>1099.84408864975</v>
-      </c>
-      <c r="AF9">
         <v>1058.301042688784</v>
       </c>
-      <c r="AG9">
-        <v>1058.301042688784</v>
-      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>50.6250991821289</v>
@@ -1461,61 +1107,25 @@
       <c r="Q10">
         <v>1100</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>40</v>
       </c>
-      <c r="S10">
-        <v>39.8</v>
-      </c>
       <c r="T10">
-        <v>0.05</v>
+        <v>1077.53308596611</v>
       </c>
       <c r="U10">
-        <v>0.06</v>
+        <v>1032.621402120356</v>
       </c>
       <c r="V10">
-        <v>17.2</v>
-      </c>
-      <c r="W10">
-        <v>0.22</v>
-      </c>
-      <c r="X10">
-        <v>43.1</v>
-      </c>
-      <c r="Y10">
-        <v>0.38</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>1077.53308596611</v>
-      </c>
-      <c r="AF10">
         <v>1032.621402120356</v>
       </c>
-      <c r="AG10">
-        <v>1032.621402120356</v>
-      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>51.4033012390137</v>
@@ -1562,52 +1172,16 @@
       <c r="Q11">
         <v>1100</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>41</v>
       </c>
-      <c r="S11">
-        <v>39.7</v>
-      </c>
       <c r="T11">
-        <v>0.03</v>
+        <v>1121.514496994018</v>
       </c>
       <c r="U11">
-        <v>0.06</v>
+        <v>1103.551251997238</v>
       </c>
       <c r="V11">
-        <v>16.9</v>
-      </c>
-      <c r="W11">
-        <v>0.2</v>
-      </c>
-      <c r="X11">
-        <v>44</v>
-      </c>
-      <c r="Y11">
-        <v>0.33</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>1121.514496994018</v>
-      </c>
-      <c r="AF11">
-        <v>1103.551251997238</v>
-      </c>
-      <c r="AG11">
         <v>1103.551251997238</v>
       </c>
     </row>
